--- a/data/pca/factorExposure/factorExposure_2017-01-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-01-16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.007492375116550251</v>
+        <v>0.01324323506284917</v>
       </c>
       <c r="C2">
-        <v>-0.0103365150276044</v>
+        <v>0.03915100901812252</v>
       </c>
       <c r="D2">
-        <v>-0.03903644557856173</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.03176467979987748</v>
+      </c>
+      <c r="E2">
+        <v>0.05106556768389517</v>
+      </c>
+      <c r="F2">
+        <v>0.01372409791591912</v>
+      </c>
+      <c r="G2">
+        <v>0.1072546008193106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.05033685227791609</v>
+        <v>0.03829702394363595</v>
       </c>
       <c r="C3">
-        <v>-0.08314621452370086</v>
+        <v>0.09274685357414425</v>
       </c>
       <c r="D3">
-        <v>-0.0689133123782356</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.01903329075963034</v>
+      </c>
+      <c r="E3">
+        <v>0.1044975282575254</v>
+      </c>
+      <c r="F3">
+        <v>0.02235635156840172</v>
+      </c>
+      <c r="G3">
+        <v>0.1331047360038485</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.05551153004046858</v>
+        <v>0.05448004693529136</v>
       </c>
       <c r="C4">
-        <v>-0.04430131004245768</v>
+        <v>0.06307902887934953</v>
       </c>
       <c r="D4">
-        <v>-0.05295598974762518</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.02661530307599666</v>
+      </c>
+      <c r="E4">
+        <v>0.04975192557427005</v>
+      </c>
+      <c r="F4">
+        <v>0.00553775680500423</v>
+      </c>
+      <c r="G4">
+        <v>0.1020183345299581</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01879631689556856</v>
+        <v>0.03249747113964289</v>
       </c>
       <c r="C6">
-        <v>-0.03595511144066384</v>
+        <v>0.04636307803334462</v>
       </c>
       <c r="D6">
-        <v>-0.04425183151062962</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.01922245389201944</v>
+      </c>
+      <c r="E6">
+        <v>0.0540938340493928</v>
+      </c>
+      <c r="F6">
+        <v>0.007378573739024359</v>
+      </c>
+      <c r="G6">
+        <v>0.08443703056497939</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01045768855495515</v>
+        <v>0.02018520142016791</v>
       </c>
       <c r="C7">
-        <v>-0.02131030159125554</v>
+        <v>0.03521605570531953</v>
       </c>
       <c r="D7">
-        <v>-0.03080934475089161</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.01531078621028414</v>
+      </c>
+      <c r="E7">
+        <v>0.02452412441375135</v>
+      </c>
+      <c r="F7">
+        <v>-0.002202578775148863</v>
+      </c>
+      <c r="G7">
+        <v>0.1264708567846427</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.001255342075027853</v>
+        <v>0.004034999116097556</v>
       </c>
       <c r="C8">
-        <v>-0.0005997900123715673</v>
+        <v>0.01955674608628588</v>
       </c>
       <c r="D8">
-        <v>-0.001058199703977066</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.004407761474338065</v>
+      </c>
+      <c r="E8">
+        <v>0.03559453678798744</v>
+      </c>
+      <c r="F8">
+        <v>0.004530986997055111</v>
+      </c>
+      <c r="G8">
+        <v>0.07000001805167223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.02302928985367248</v>
+        <v>0.03300433969185175</v>
       </c>
       <c r="C9">
-        <v>-0.02622089504419255</v>
+        <v>0.04511356075686256</v>
       </c>
       <c r="D9">
-        <v>-0.03457618302158519</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.01732366286748658</v>
+      </c>
+      <c r="E9">
+        <v>0.034213635515549</v>
+      </c>
+      <c r="F9">
+        <v>0.001387077633842401</v>
+      </c>
+      <c r="G9">
+        <v>0.1015242169962479</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.108638055524791</v>
+        <v>0.09705686402718927</v>
       </c>
       <c r="C10">
-        <v>0.1253009693424428</v>
+        <v>-0.1902356174839061</v>
       </c>
       <c r="D10">
-        <v>0.1355544547021579</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01560807145382535</v>
+      </c>
+      <c r="E10">
+        <v>0.0153230491790198</v>
+      </c>
+      <c r="F10">
+        <v>0.0242873798902535</v>
+      </c>
+      <c r="G10">
+        <v>0.04978654280150659</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.03126301354178351</v>
+        <v>0.03604007266630935</v>
       </c>
       <c r="C11">
-        <v>-0.04675888780168676</v>
+        <v>0.05188377334245409</v>
       </c>
       <c r="D11">
-        <v>-0.03213351241034556</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.003026573809350142</v>
+      </c>
+      <c r="E11">
+        <v>0.02604335641877555</v>
+      </c>
+      <c r="F11">
+        <v>-0.01399326986919564</v>
+      </c>
+      <c r="G11">
+        <v>0.08234449979794323</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.03043834322141023</v>
+        <v>0.0377277819827203</v>
       </c>
       <c r="C12">
-        <v>-0.03699838853423042</v>
+        <v>0.04609952576128376</v>
       </c>
       <c r="D12">
-        <v>-0.03079933841204118</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.006950722301037854</v>
+      </c>
+      <c r="E12">
+        <v>0.01511315816131612</v>
+      </c>
+      <c r="F12">
+        <v>-0.002428711366856139</v>
+      </c>
+      <c r="G12">
+        <v>0.07797570494490258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.007654279169754171</v>
+        <v>0.01015507545202925</v>
       </c>
       <c r="C13">
-        <v>-0.01004812033383679</v>
+        <v>0.03417005635156217</v>
       </c>
       <c r="D13">
-        <v>-0.03544775149380712</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.02963282737138852</v>
+      </c>
+      <c r="E13">
+        <v>0.06007715478615212</v>
+      </c>
+      <c r="F13">
+        <v>0.01569817480604679</v>
+      </c>
+      <c r="G13">
+        <v>0.140151719257164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.00212849755691076</v>
+        <v>0.008930069514396205</v>
       </c>
       <c r="C14">
-        <v>-0.0128725492911847</v>
+        <v>0.02510098463523893</v>
       </c>
       <c r="D14">
-        <v>-0.01993829290218562</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.01149736483976243</v>
+      </c>
+      <c r="E14">
+        <v>0.01940277614836203</v>
+      </c>
+      <c r="F14">
+        <v>0.006857768272480616</v>
+      </c>
+      <c r="G14">
+        <v>0.1160550043828327</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.02683406363374295</v>
+        <v>0.03403092673662424</v>
       </c>
       <c r="C16">
-        <v>-0.0325803897032951</v>
+        <v>0.04443884309951156</v>
       </c>
       <c r="D16">
-        <v>-0.0214317268346541</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.002462591088059136</v>
+      </c>
+      <c r="E16">
+        <v>0.02115663950639259</v>
+      </c>
+      <c r="F16">
+        <v>0.004540679335084264</v>
+      </c>
+      <c r="G16">
+        <v>0.08482203407364106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.02184298391314526</v>
+        <v>0.01806202820333447</v>
       </c>
       <c r="C19">
-        <v>-0.03267270415061656</v>
+        <v>0.04549311873326891</v>
       </c>
       <c r="D19">
-        <v>-0.0388190611492118</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.02247543913913942</v>
+      </c>
+      <c r="E19">
+        <v>0.09579928036147888</v>
+      </c>
+      <c r="F19">
+        <v>0.01320817160169157</v>
+      </c>
+      <c r="G19">
+        <v>0.1382787517213559</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.007705708870866677</v>
+        <v>0.0144939790532631</v>
       </c>
       <c r="C20">
-        <v>-0.02111358739546117</v>
+        <v>0.03688760919761647</v>
       </c>
       <c r="D20">
-        <v>-0.02981096839651304</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.01579806854919008</v>
+      </c>
+      <c r="E20">
+        <v>0.0453351491134461</v>
+      </c>
+      <c r="F20">
+        <v>0.0264430067104505</v>
+      </c>
+      <c r="G20">
+        <v>0.1102869809580643</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-7.637625763746671e-05</v>
+        <v>0.006494976677253236</v>
       </c>
       <c r="C21">
-        <v>-0.01181480274567853</v>
+        <v>0.03000705074844435</v>
       </c>
       <c r="D21">
-        <v>-0.02761047123489377</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.02182527202408406</v>
+      </c>
+      <c r="E21">
+        <v>0.06392901791570815</v>
+      </c>
+      <c r="F21">
+        <v>0.0159617860446732</v>
+      </c>
+      <c r="G21">
+        <v>0.153514325218682</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001159135613365084</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.005417019425999111</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.002524056543492076</v>
+      </c>
+      <c r="E22">
+        <v>0.01917880165536316</v>
+      </c>
+      <c r="F22">
+        <v>-0.003034741654648934</v>
+      </c>
+      <c r="G22">
+        <v>0.004454438264979282</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.00113486604146877</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.005326684182444889</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.002509741595454152</v>
+      </c>
+      <c r="E23">
+        <v>0.01909560732110744</v>
+      </c>
+      <c r="F23">
+        <v>-0.002786577971019598</v>
+      </c>
+      <c r="G23">
+        <v>0.004312037626716361</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.02122393000017513</v>
+        <v>0.03042231985310462</v>
       </c>
       <c r="C24">
-        <v>-0.03477020438234152</v>
+        <v>0.04881667080025728</v>
       </c>
       <c r="D24">
-        <v>-0.03050230891056495</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.007583396374555379</v>
+      </c>
+      <c r="E24">
+        <v>0.01963752875342591</v>
+      </c>
+      <c r="F24">
+        <v>-0.004315786281303463</v>
+      </c>
+      <c r="G24">
+        <v>0.08548654291242468</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.03842517705990437</v>
+        <v>0.04311769843423174</v>
       </c>
       <c r="C25">
-        <v>-0.04256607728808679</v>
+        <v>0.05606985720994818</v>
       </c>
       <c r="D25">
-        <v>-0.03985120325598678</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.01173329345148201</v>
+      </c>
+      <c r="E25">
+        <v>0.01289790294533413</v>
+      </c>
+      <c r="F25">
+        <v>-0.004824318614217797</v>
+      </c>
+      <c r="G25">
+        <v>0.09228960520032943</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.006183067124884761</v>
+        <v>0.01478327918802136</v>
       </c>
       <c r="C26">
-        <v>0.01027968278326112</v>
+        <v>0.008758117802620874</v>
       </c>
       <c r="D26">
-        <v>-0.01879813859083425</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02447112726975141</v>
+      </c>
+      <c r="E26">
+        <v>0.01458851979431087</v>
+      </c>
+      <c r="F26">
+        <v>0.007041697250504846</v>
+      </c>
+      <c r="G26">
+        <v>0.08524036025957009</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1367501921271553</v>
+        <v>0.1271496914265962</v>
       </c>
       <c r="C28">
-        <v>0.1519277990642008</v>
+        <v>-0.2445875939685251</v>
       </c>
       <c r="D28">
-        <v>0.1466737834777017</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.007182539608493397</v>
+      </c>
+      <c r="E28">
+        <v>-0.004552489304723359</v>
+      </c>
+      <c r="F28">
+        <v>0.02253371076128009</v>
+      </c>
+      <c r="G28">
+        <v>0.04358146688580267</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.007875809486610048</v>
+        <v>0.007906799707896529</v>
       </c>
       <c r="C29">
-        <v>-0.01035714323648241</v>
+        <v>0.02100937283274889</v>
       </c>
       <c r="D29">
-        <v>-0.01603046756972734</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01029543150214597</v>
+      </c>
+      <c r="E29">
+        <v>0.01201269155558073</v>
+      </c>
+      <c r="F29">
+        <v>0.01070845800783</v>
+      </c>
+      <c r="G29">
+        <v>0.1054051636695706</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02990832318946412</v>
+        <v>0.03828466024439634</v>
       </c>
       <c r="C30">
-        <v>-0.05047138935933278</v>
+        <v>0.06294716468492072</v>
       </c>
       <c r="D30">
-        <v>-0.06635396215197449</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.03158231079670963</v>
+      </c>
+      <c r="E30">
+        <v>0.07786425327826209</v>
+      </c>
+      <c r="F30">
+        <v>-0.01632471969734034</v>
+      </c>
+      <c r="G30">
+        <v>0.1225926453446325</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.03490594554445307</v>
+        <v>0.0532952515965949</v>
       </c>
       <c r="C31">
-        <v>-0.01549694052785335</v>
+        <v>0.0371871333340517</v>
       </c>
       <c r="D31">
-        <v>-0.01079469104601343</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.004137800522451932</v>
+      </c>
+      <c r="E31">
+        <v>8.487381365030677e-05</v>
+      </c>
+      <c r="F31">
+        <v>0.03512833054795813</v>
+      </c>
+      <c r="G31">
+        <v>0.09699270496479248</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.001857355704546023</v>
+        <v>0.002001872176146089</v>
       </c>
       <c r="C32">
-        <v>-0.02579704093400978</v>
+        <v>0.01818537849759266</v>
       </c>
       <c r="D32">
-        <v>-0.01160652263150861</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.001263427014673548</v>
+      </c>
+      <c r="E32">
+        <v>0.05060942235615155</v>
+      </c>
+      <c r="F32">
+        <v>-0.02322983035300686</v>
+      </c>
+      <c r="G32">
+        <v>0.07568071274088269</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.02241517780621278</v>
+        <v>0.0265050376025881</v>
       </c>
       <c r="C33">
-        <v>-0.03684730311505282</v>
+        <v>0.04602455961694149</v>
       </c>
       <c r="D33">
-        <v>-0.03994137316336805</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.01806751251553926</v>
+      </c>
+      <c r="E33">
+        <v>0.06473542683222418</v>
+      </c>
+      <c r="F33">
+        <v>-0.002861875595432023</v>
+      </c>
+      <c r="G33">
+        <v>0.1581448626912804</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.04362574160234734</v>
+        <v>0.04179515201139945</v>
       </c>
       <c r="C34">
-        <v>-0.0537286932920334</v>
+        <v>0.05939742633466204</v>
       </c>
       <c r="D34">
-        <v>-0.02676745636624187</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.003883566801620425</v>
+      </c>
+      <c r="E34">
+        <v>0.01896053100830411</v>
+      </c>
+      <c r="F34">
+        <v>-0.01850552614879204</v>
+      </c>
+      <c r="G34">
+        <v>0.08410426581406961</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01001128095658087</v>
+        <v>0.01491356328055127</v>
       </c>
       <c r="C36">
-        <v>0.0060749919118576</v>
+        <v>0.005332066184005326</v>
       </c>
       <c r="D36">
-        <v>-0.006936897169122317</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01355570352131316</v>
+      </c>
+      <c r="E36">
+        <v>0.01829364698207535</v>
+      </c>
+      <c r="F36">
+        <v>0.007955733561701369</v>
+      </c>
+      <c r="G36">
+        <v>0.09680110295992363</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.02656199964480322</v>
+        <v>0.02994418133972299</v>
       </c>
       <c r="C38">
-        <v>-0.02342557348684471</v>
+        <v>0.02238018725142663</v>
       </c>
       <c r="D38">
-        <v>-0.003492373694808995</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.006623691944983838</v>
+      </c>
+      <c r="E38">
+        <v>0.016034299032459</v>
+      </c>
+      <c r="F38">
+        <v>0.01445561762857211</v>
+      </c>
+      <c r="G38">
+        <v>0.0911655924915762</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.02175431162426501</v>
+        <v>0.03663245207659829</v>
       </c>
       <c r="C39">
-        <v>-0.06496535025806709</v>
+        <v>0.07608372984185489</v>
       </c>
       <c r="D39">
-        <v>-0.06016726385937611</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.01310222267091175</v>
+      </c>
+      <c r="E39">
+        <v>0.03767204358846475</v>
+      </c>
+      <c r="F39">
+        <v>-0.01329653162671152</v>
+      </c>
+      <c r="G39">
+        <v>0.09415299263056881</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.015396329433148</v>
+        <v>0.01595075569895391</v>
       </c>
       <c r="C40">
-        <v>-0.009313886023310304</v>
+        <v>0.03327466820526277</v>
       </c>
       <c r="D40">
-        <v>-0.01812447557040879</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.01544524675845898</v>
+      </c>
+      <c r="E40">
+        <v>0.03510738652385194</v>
+      </c>
+      <c r="F40">
+        <v>0.02534308781364741</v>
+      </c>
+      <c r="G40">
+        <v>0.1238550195389</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01136355252995355</v>
+        <v>0.01852009110670458</v>
       </c>
       <c r="C41">
-        <v>0.006365125562379213</v>
+        <v>-0.00166937434352418</v>
       </c>
       <c r="D41">
-        <v>0.003130946089947374</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.005625096933125569</v>
+      </c>
+      <c r="E41">
+        <v>0.01535744196490034</v>
+      </c>
+      <c r="F41">
+        <v>0.01373914707422642</v>
+      </c>
+      <c r="G41">
+        <v>0.09116273183084055</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.006848113001015711</v>
+        <v>0.004880399173461007</v>
       </c>
       <c r="C42">
-        <v>0.008899586445957565</v>
+        <v>0.02862352456192802</v>
       </c>
       <c r="D42">
-        <v>-0.1067916992549778</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.08445542536140951</v>
+      </c>
+      <c r="E42">
+        <v>-0.007049191227425814</v>
+      </c>
+      <c r="F42">
+        <v>0.03325061153361964</v>
+      </c>
+      <c r="G42">
+        <v>-0.01605572830763395</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.02717494047993312</v>
+        <v>0.03299360199676304</v>
       </c>
       <c r="C43">
-        <v>-0.004403768245792208</v>
+        <v>0.01239571069361345</v>
       </c>
       <c r="D43">
-        <v>-0.002605416307976355</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.007237995027484752</v>
+      </c>
+      <c r="E43">
+        <v>0.03358310081748117</v>
+      </c>
+      <c r="F43">
+        <v>0.01056591854859515</v>
+      </c>
+      <c r="G43">
+        <v>0.1199450602944039</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.01227718930618193</v>
+        <v>0.0129489209081661</v>
       </c>
       <c r="C44">
-        <v>-0.04189131807053646</v>
+        <v>0.05194737872721728</v>
       </c>
       <c r="D44">
-        <v>-0.03551950477572821</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.008261738166254784</v>
+      </c>
+      <c r="E44">
+        <v>0.03750459147823973</v>
+      </c>
+      <c r="F44">
+        <v>0.01902043989777702</v>
+      </c>
+      <c r="G44">
+        <v>0.119679820466809</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.001282493796003853</v>
+        <v>0.009315312633679211</v>
       </c>
       <c r="C46">
-        <v>0.003337344354121024</v>
+        <v>0.01414173440974288</v>
       </c>
       <c r="D46">
-        <v>-0.01099957909264976</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01302263551403643</v>
+      </c>
+      <c r="E46">
+        <v>0.00304765589522582</v>
+      </c>
+      <c r="F46">
+        <v>0.01415766198551959</v>
+      </c>
+      <c r="G46">
+        <v>0.1097209404938716</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.0586117573874845</v>
+        <v>0.0813438692374668</v>
       </c>
       <c r="C47">
-        <v>-0.05454959448737109</v>
+        <v>0.06853173013086476</v>
       </c>
       <c r="D47">
-        <v>-0.02890055275406765</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.005101272890271188</v>
+      </c>
+      <c r="E47">
+        <v>-0.008103624659731239</v>
+      </c>
+      <c r="F47">
+        <v>0.04377275702659608</v>
+      </c>
+      <c r="G47">
+        <v>0.08789084517255139</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.01055851489738522</v>
+        <v>0.01796450837722364</v>
       </c>
       <c r="C48">
-        <v>-0.004305403227326659</v>
+        <v>0.009561419840840654</v>
       </c>
       <c r="D48">
-        <v>-0.002518756817811995</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.003178736889641712</v>
+      </c>
+      <c r="E48">
+        <v>0.01265542061380169</v>
+      </c>
+      <c r="F48">
+        <v>0.01969582714710133</v>
+      </c>
+      <c r="G48">
+        <v>0.106961822756472</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.06540437132972514</v>
+        <v>0.07453297141549013</v>
       </c>
       <c r="C50">
-        <v>-0.05002678458824769</v>
+        <v>0.06742925942416836</v>
       </c>
       <c r="D50">
-        <v>-0.02512816397685944</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.001784403539439666</v>
+      </c>
+      <c r="E50">
+        <v>-0.004123886176080954</v>
+      </c>
+      <c r="F50">
+        <v>0.04477228465723128</v>
+      </c>
+      <c r="G50">
+        <v>0.1027277096654374</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.01026399968565347</v>
+        <v>0.01180626278895016</v>
       </c>
       <c r="C51">
-        <v>-0.02284333072912544</v>
+        <v>0.03355306939845534</v>
       </c>
       <c r="D51">
-        <v>-0.02523088631960496</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.01204958041042398</v>
+      </c>
+      <c r="E51">
+        <v>0.03827168480460882</v>
+      </c>
+      <c r="F51">
+        <v>-0.007729600299307157</v>
+      </c>
+      <c r="G51">
+        <v>0.1171359124816431</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.0822615295086019</v>
+        <v>0.08381590409341814</v>
       </c>
       <c r="C53">
-        <v>-0.07277019514923366</v>
+        <v>0.08192845351545386</v>
       </c>
       <c r="D53">
-        <v>-0.04034186743766274</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.004172726076013398</v>
+      </c>
+      <c r="E53">
+        <v>-0.02992405235304683</v>
+      </c>
+      <c r="F53">
+        <v>0.0486985240319155</v>
+      </c>
+      <c r="G53">
+        <v>0.09332122058734821</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.02586673532483453</v>
+        <v>0.03144292546333322</v>
       </c>
       <c r="C54">
-        <v>-0.002420022015784601</v>
+        <v>0.01394490638348209</v>
       </c>
       <c r="D54">
-        <v>0.006811061760289051</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.0001404929100196319</v>
+      </c>
+      <c r="E54">
+        <v>0.02496269246591703</v>
+      </c>
+      <c r="F54">
+        <v>0.01123797802726291</v>
+      </c>
+      <c r="G54">
+        <v>0.1097344343331627</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.06230779434075327</v>
+        <v>0.07730605705186905</v>
       </c>
       <c r="C55">
-        <v>-0.06026869002508012</v>
+        <v>0.06702378570724546</v>
       </c>
       <c r="D55">
-        <v>-0.03315224287868832</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.005854394007388133</v>
+      </c>
+      <c r="E55">
+        <v>-0.0308851860252387</v>
+      </c>
+      <c r="F55">
+        <v>0.04820056845547338</v>
+      </c>
+      <c r="G55">
+        <v>0.07140543239304575</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1254550310474687</v>
+        <v>0.138883881457712</v>
       </c>
       <c r="C56">
-        <v>-0.1023502462729996</v>
+        <v>0.1033911216045863</v>
       </c>
       <c r="D56">
-        <v>-0.04820332245456127</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.01319673690948461</v>
+      </c>
+      <c r="E56">
+        <v>-0.03683922225736035</v>
+      </c>
+      <c r="F56">
+        <v>0.05689799210886012</v>
+      </c>
+      <c r="G56">
+        <v>0.0563431514118046</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.01021805272011847</v>
+        <v>0.003787117793095734</v>
       </c>
       <c r="C57">
-        <v>0.004813122806509637</v>
+        <v>0.003722311372360117</v>
       </c>
       <c r="D57">
-        <v>-0.02250107243349248</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.02299817977517664</v>
+      </c>
+      <c r="E57">
+        <v>0.02445578366915995</v>
+      </c>
+      <c r="F57">
+        <v>0.0008273506695984539</v>
+      </c>
+      <c r="G57">
+        <v>0.01403346624980349</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.03736453924418325</v>
+        <v>0.03906354289489916</v>
       </c>
       <c r="C58">
-        <v>-0.05245317312824985</v>
+        <v>0.02787861949077448</v>
       </c>
       <c r="D58">
-        <v>-0.03481073401863109</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.03584269739538222</v>
+      </c>
+      <c r="E58">
+        <v>0.7540316073390536</v>
+      </c>
+      <c r="F58">
+        <v>0.5545949455787196</v>
+      </c>
+      <c r="G58">
+        <v>-0.2856899142214401</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1810733386619795</v>
+        <v>0.1556810807728068</v>
       </c>
       <c r="C59">
-        <v>0.1400802778835739</v>
+        <v>-0.2111031149477561</v>
       </c>
       <c r="D59">
-        <v>0.1535170175828795</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.01083841271726621</v>
+      </c>
+      <c r="E59">
+        <v>0.02111299708421335</v>
+      </c>
+      <c r="F59">
+        <v>0.006400422255380026</v>
+      </c>
+      <c r="G59">
+        <v>0.03271211155296178</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.3074990704271695</v>
+        <v>0.2863278417319797</v>
       </c>
       <c r="C60">
-        <v>-0.1279945851815444</v>
+        <v>0.1060707634548062</v>
       </c>
       <c r="D60">
-        <v>-0.0626464908036538</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.0171809108817335</v>
+      </c>
+      <c r="E60">
+        <v>0.1140166727731113</v>
+      </c>
+      <c r="F60">
+        <v>-0.3092456839277352</v>
+      </c>
+      <c r="G60">
+        <v>-0.1732135420593268</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.02393218372170365</v>
+        <v>0.03926982339542354</v>
       </c>
       <c r="C61">
-        <v>-0.05207554883169749</v>
+        <v>0.0626017170808523</v>
       </c>
       <c r="D61">
-        <v>-0.04135509173049456</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.006933701660885878</v>
+      </c>
+      <c r="E61">
+        <v>0.03565502216450318</v>
+      </c>
+      <c r="F61">
+        <v>-0.007704684984483203</v>
+      </c>
+      <c r="G61">
+        <v>0.0909758784896663</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.01196503138497912</v>
+        <v>0.01475910291294733</v>
       </c>
       <c r="C63">
-        <v>-0.02125151113573642</v>
+        <v>0.02729779714917465</v>
       </c>
       <c r="D63">
-        <v>-0.02444114660859438</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.009120573001776853</v>
+      </c>
+      <c r="E63">
+        <v>0.01009253828264641</v>
+      </c>
+      <c r="F63">
+        <v>0.01505756692672133</v>
+      </c>
+      <c r="G63">
+        <v>0.09453786291877386</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.04260410929647833</v>
+        <v>0.05053591384744198</v>
       </c>
       <c r="C64">
-        <v>-0.03104953521508602</v>
+        <v>0.04499026662821806</v>
       </c>
       <c r="D64">
-        <v>-0.02327138493705654</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.006180670528009859</v>
+      </c>
+      <c r="E64">
+        <v>0.008758550106451841</v>
+      </c>
+      <c r="F64">
+        <v>-0.007084239160525226</v>
+      </c>
+      <c r="G64">
+        <v>0.09458780030173439</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.07737338869620838</v>
+        <v>0.07052918791814797</v>
       </c>
       <c r="C65">
-        <v>-0.06733545638177728</v>
+        <v>0.05409787448923465</v>
       </c>
       <c r="D65">
-        <v>-0.0589745468669054</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.01879252784707103</v>
+      </c>
+      <c r="E65">
+        <v>0.05938953485302609</v>
+      </c>
+      <c r="F65">
+        <v>-0.01000294727724143</v>
+      </c>
+      <c r="G65">
+        <v>0.04096097703871751</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.03775147517312358</v>
+        <v>0.04793122874499863</v>
       </c>
       <c r="C66">
-        <v>-0.1029825308458382</v>
+        <v>0.1017317399945928</v>
       </c>
       <c r="D66">
-        <v>-0.08700319175097997</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.01411346363042544</v>
+      </c>
+      <c r="E66">
+        <v>0.06218457366138076</v>
+      </c>
+      <c r="F66">
+        <v>-0.02170623061706837</v>
+      </c>
+      <c r="G66">
+        <v>0.1009028886498221</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05359979298861553</v>
+        <v>0.05420442281497068</v>
       </c>
       <c r="C67">
-        <v>-0.03256782465663667</v>
+        <v>0.02921388396491701</v>
       </c>
       <c r="D67">
-        <v>-0.009563954420159866</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.005542811010768455</v>
+      </c>
+      <c r="E67">
+        <v>0.004230784371736427</v>
+      </c>
+      <c r="F67">
+        <v>0.008826981626833241</v>
+      </c>
+      <c r="G67">
+        <v>0.07692891004735264</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1609843611905246</v>
+        <v>0.1547745364686</v>
       </c>
       <c r="C68">
-        <v>0.1932670670313296</v>
+        <v>-0.2724054914049411</v>
       </c>
       <c r="D68">
-        <v>0.1671624389954401</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.004544975910979372</v>
+      </c>
+      <c r="E68">
+        <v>-0.0108680847307044</v>
+      </c>
+      <c r="F68">
+        <v>0.04588339475383025</v>
+      </c>
+      <c r="G68">
+        <v>0.0124237818245487</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.06771816933790883</v>
+        <v>0.08312927287437372</v>
       </c>
       <c r="C69">
-        <v>-0.0552505355895465</v>
+        <v>0.07097955221141804</v>
       </c>
       <c r="D69">
-        <v>-0.02257171851092895</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008806689970056545</v>
+      </c>
+      <c r="E69">
+        <v>-0.01719120800428027</v>
+      </c>
+      <c r="F69">
+        <v>0.02228747644770391</v>
+      </c>
+      <c r="G69">
+        <v>0.1003919711197919</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1563713348762106</v>
+        <v>0.1415417143577407</v>
       </c>
       <c r="C71">
-        <v>0.1479655332788536</v>
+        <v>-0.2332153154912498</v>
       </c>
       <c r="D71">
-        <v>0.1438916249950752</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.003191768276489127</v>
+      </c>
+      <c r="E71">
+        <v>0.02427974906191234</v>
+      </c>
+      <c r="F71">
+        <v>0.029201335400412</v>
+      </c>
+      <c r="G71">
+        <v>0.05825404244773671</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.06424952008405117</v>
+        <v>0.08542408360734614</v>
       </c>
       <c r="C72">
-        <v>-0.06839820769875</v>
+        <v>0.06433067442682051</v>
       </c>
       <c r="D72">
-        <v>-0.03319148080500795</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.006754610698465311</v>
+      </c>
+      <c r="E72">
+        <v>0.01023531933749181</v>
+      </c>
+      <c r="F72">
+        <v>-0.02850746527959816</v>
+      </c>
+      <c r="G72">
+        <v>0.08322854468866711</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.415408965963052</v>
+        <v>0.3673238075800453</v>
       </c>
       <c r="C73">
-        <v>-0.1831482621617672</v>
+        <v>0.110755340155092</v>
       </c>
       <c r="D73">
-        <v>-0.09634957410976303</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.03122789190887783</v>
+      </c>
+      <c r="E73">
+        <v>0.2595756666009491</v>
+      </c>
+      <c r="F73">
+        <v>-0.531724239366249</v>
+      </c>
+      <c r="G73">
+        <v>-0.3205508077440347</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.09536334093206919</v>
+        <v>0.1068470991478885</v>
       </c>
       <c r="C74">
-        <v>-0.1079785128888217</v>
+        <v>0.1055076766816091</v>
       </c>
       <c r="D74">
-        <v>-0.05954471063829873</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.009462353067712885</v>
+      </c>
+      <c r="E74">
+        <v>-0.009757085746417444</v>
+      </c>
+      <c r="F74">
+        <v>0.0564228920868026</v>
+      </c>
+      <c r="G74">
+        <v>0.07688311418782083</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.2230781939420474</v>
+        <v>0.2497152961491825</v>
       </c>
       <c r="C75">
-        <v>-0.1657166305463101</v>
+        <v>0.1469923962791135</v>
       </c>
       <c r="D75">
-        <v>-0.07060446140473925</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03237840476776064</v>
+      </c>
+      <c r="E75">
+        <v>-0.09650046434386822</v>
+      </c>
+      <c r="F75">
+        <v>0.1298903086543603</v>
+      </c>
+      <c r="G75">
+        <v>0.01690636998826946</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1101920678921952</v>
+        <v>0.1192269624365517</v>
       </c>
       <c r="C76">
-        <v>-0.1150249018921445</v>
+        <v>0.106397693921788</v>
       </c>
       <c r="D76">
-        <v>-0.05393146789682428</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.01839986167482389</v>
+      </c>
+      <c r="E76">
+        <v>-0.04172077873034425</v>
+      </c>
+      <c r="F76">
+        <v>0.08128901497197917</v>
+      </c>
+      <c r="G76">
+        <v>0.07153330659744142</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.04768316246769865</v>
+        <v>0.06920357314799915</v>
       </c>
       <c r="C77">
-        <v>-0.05119170236354847</v>
+        <v>0.04859530409296776</v>
       </c>
       <c r="D77">
-        <v>-0.04267252908027177</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.011970914931765</v>
+      </c>
+      <c r="E77">
+        <v>0.06507120586308085</v>
+      </c>
+      <c r="F77">
+        <v>0.005089742636405276</v>
+      </c>
+      <c r="G77">
+        <v>0.08322086591436209</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.04285810011482731</v>
+        <v>0.03972654314816124</v>
       </c>
       <c r="C78">
-        <v>-0.04935978503849967</v>
+        <v>0.05008413090641573</v>
       </c>
       <c r="D78">
-        <v>-0.03595563348971806</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.008579198824705071</v>
+      </c>
+      <c r="E78">
+        <v>0.04936735711952596</v>
+      </c>
+      <c r="F78">
+        <v>-0.02357114151713518</v>
+      </c>
+      <c r="G78">
+        <v>0.09976303672604452</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.001584466298853325</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-0.00111125736345199</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.0008018625070723822</v>
+      </c>
+      <c r="E79">
+        <v>0.00711737065520851</v>
+      </c>
+      <c r="F79">
+        <v>0.001363415908455116</v>
+      </c>
+      <c r="G79">
+        <v>0.00706948924441014</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.04621218252344754</v>
+        <v>0.04113909317774024</v>
       </c>
       <c r="C80">
-        <v>-0.05334286047821132</v>
+        <v>0.04733459773322433</v>
       </c>
       <c r="D80">
-        <v>-0.04881083308588156</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01491414771832992</v>
+      </c>
+      <c r="E80">
+        <v>0.0385182604300505</v>
+      </c>
+      <c r="F80">
+        <v>0.00389752807844715</v>
+      </c>
+      <c r="G80">
+        <v>0.05827953652115211</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1225884270228712</v>
+        <v>0.1398407361879507</v>
       </c>
       <c r="C81">
-        <v>-0.09088931146702622</v>
+        <v>0.09041048292104238</v>
       </c>
       <c r="D81">
-        <v>-0.03899860762785748</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01591171728235921</v>
+      </c>
+      <c r="E81">
+        <v>-0.06025981846841641</v>
+      </c>
+      <c r="F81">
+        <v>0.1037475239741776</v>
+      </c>
+      <c r="G81">
+        <v>0.03664949377584058</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.0408986855470943</v>
+        <v>0.1674861073567757</v>
       </c>
       <c r="C82">
-        <v>-0.02975374035030504</v>
+        <v>0.1118880837612813</v>
       </c>
       <c r="D82">
-        <v>-0.01507609296253941</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.01752166285288567</v>
+      </c>
+      <c r="E82">
+        <v>-0.168325882043053</v>
+      </c>
+      <c r="F82">
+        <v>0.05251368814724786</v>
+      </c>
+      <c r="G82">
+        <v>0.01874905621369069</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.02203785066923903</v>
+        <v>0.0331890930372991</v>
       </c>
       <c r="C83">
-        <v>-0.01536864672205458</v>
+        <v>0.02952928941794613</v>
       </c>
       <c r="D83">
-        <v>-0.01383211571374312</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.007857526162131001</v>
+      </c>
+      <c r="E83">
+        <v>0.04157830582433235</v>
+      </c>
+      <c r="F83">
+        <v>-0.02784364948644653</v>
+      </c>
+      <c r="G83">
+        <v>0.05481830357712362</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.2163417949426141</v>
+        <v>0.2110885698139886</v>
       </c>
       <c r="C85">
-        <v>-0.1763944479477557</v>
+        <v>0.1409383327621213</v>
       </c>
       <c r="D85">
-        <v>-0.09482551118161081</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01827394488510817</v>
+      </c>
+      <c r="E85">
+        <v>-0.1056506348196807</v>
+      </c>
+      <c r="F85">
+        <v>0.06208385446027119</v>
+      </c>
+      <c r="G85">
+        <v>-0.02010794351078473</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.008004387614302574</v>
+        <v>0.01145475009258404</v>
       </c>
       <c r="C86">
-        <v>-0.01675283630915811</v>
+        <v>0.02388913641091375</v>
       </c>
       <c r="D86">
-        <v>-0.01977849522074832</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.01388891529356442</v>
+      </c>
+      <c r="E86">
+        <v>0.07260042487388643</v>
+      </c>
+      <c r="F86">
+        <v>-0.01734517318821683</v>
+      </c>
+      <c r="G86">
+        <v>0.1722148289788285</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.007420643822483647</v>
+        <v>0.02096672900451126</v>
       </c>
       <c r="C87">
-        <v>-0.009950271544786237</v>
+        <v>0.01458809047944012</v>
       </c>
       <c r="D87">
-        <v>-0.01682478687943068</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.0141262050125011</v>
+      </c>
+      <c r="E87">
+        <v>0.09937865589935439</v>
+      </c>
+      <c r="F87">
+        <v>0.0276022907122337</v>
+      </c>
+      <c r="G87">
+        <v>0.1123761398061137</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.08121803724063004</v>
+        <v>0.09001043017938813</v>
       </c>
       <c r="C88">
-        <v>-0.03874512214211798</v>
+        <v>0.06598705849315159</v>
       </c>
       <c r="D88">
-        <v>-0.04589190197735072</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.0231964649234428</v>
+      </c>
+      <c r="E88">
+        <v>0.007361898361060013</v>
+      </c>
+      <c r="F88">
+        <v>0.01427182409528481</v>
+      </c>
+      <c r="G88">
+        <v>0.106343231408489</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.2639373342788619</v>
+        <v>0.2268470144363428</v>
       </c>
       <c r="C89">
-        <v>0.2563110919198372</v>
+        <v>-0.3709252409658464</v>
       </c>
       <c r="D89">
-        <v>0.2397826150068878</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.0002077325623824583</v>
+      </c>
+      <c r="E89">
+        <v>-0.02823033177505006</v>
+      </c>
+      <c r="F89">
+        <v>0.01853627260949108</v>
+      </c>
+      <c r="G89">
+        <v>0.08086159729177818</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.2271799578561438</v>
+        <v>0.2056359124828718</v>
       </c>
       <c r="C90">
-        <v>0.2281540142031027</v>
+        <v>-0.3182491202913709</v>
       </c>
       <c r="D90">
-        <v>0.2178891679635925</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.004922238929449279</v>
+      </c>
+      <c r="E90">
+        <v>-0.01488937067518168</v>
+      </c>
+      <c r="F90">
+        <v>0.04888047304214728</v>
+      </c>
+      <c r="G90">
+        <v>0.04347912095401607</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1769843989190726</v>
+        <v>0.1874455849295006</v>
       </c>
       <c r="C91">
-        <v>-0.1199838319574108</v>
+        <v>0.1334137299291734</v>
       </c>
       <c r="D91">
-        <v>-0.04428047696462421</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.02327120916223843</v>
+      </c>
+      <c r="E91">
+        <v>-0.07920794683673907</v>
+      </c>
+      <c r="F91">
+        <v>0.1014124741173311</v>
+      </c>
+      <c r="G91">
+        <v>0.04518763916960499</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.2182043256987171</v>
+        <v>0.1916174496098574</v>
       </c>
       <c r="C92">
-        <v>0.14526099506198</v>
+        <v>-0.2625510428291443</v>
       </c>
       <c r="D92">
-        <v>0.1942205030331819</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03819148059614254</v>
+      </c>
+      <c r="E92">
+        <v>0.0210005293653281</v>
+      </c>
+      <c r="F92">
+        <v>0.05288633050286196</v>
+      </c>
+      <c r="G92">
+        <v>0.09172073245598521</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.2462694199920649</v>
+        <v>0.2284728595624736</v>
       </c>
       <c r="C93">
-        <v>0.2061066928444263</v>
+        <v>-0.315879067373747</v>
       </c>
       <c r="D93">
-        <v>0.2103931977306176</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01050006609684962</v>
+      </c>
+      <c r="E93">
+        <v>0.001415046595060868</v>
+      </c>
+      <c r="F93">
+        <v>0.03686282792515288</v>
+      </c>
+      <c r="G93">
+        <v>0.05774891257073898</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.2361012173328185</v>
+        <v>0.3332687838466514</v>
       </c>
       <c r="C94">
-        <v>-0.149489310296079</v>
+        <v>0.2061426000475495</v>
       </c>
       <c r="D94">
-        <v>-0.08157008984812324</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.02870975906429412</v>
+      </c>
+      <c r="E94">
+        <v>-0.3746525483468594</v>
+      </c>
+      <c r="F94">
+        <v>0.397747552085582</v>
+      </c>
+      <c r="G94">
+        <v>-0.3688755795743612</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.06616982972989668</v>
+        <v>0.08904259123958244</v>
       </c>
       <c r="C95">
-        <v>-0.1103914119379841</v>
+        <v>0.07342285525491962</v>
       </c>
       <c r="D95">
-        <v>-0.06868163520774667</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.006435444175679276</v>
+      </c>
+      <c r="E95">
+        <v>0.1293436464953163</v>
+      </c>
+      <c r="F95">
+        <v>-0.1593165614143077</v>
+      </c>
+      <c r="G95">
+        <v>0.06176913660686399</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.206682736746717</v>
+        <v>0.1923490611562633</v>
       </c>
       <c r="C98">
-        <v>-0.08602426112927736</v>
+        <v>0.0482099073564535</v>
       </c>
       <c r="D98">
-        <v>-0.01142132647470405</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.009156475987437865</v>
+      </c>
+      <c r="E98">
+        <v>0.1308300400277518</v>
+      </c>
+      <c r="F98">
+        <v>-0.1968710049032857</v>
+      </c>
+      <c r="G98">
+        <v>-0.06459125162013511</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.007597648868233109</v>
+        <v>0.007752074751056268</v>
       </c>
       <c r="C101">
-        <v>-0.0106361609525414</v>
+        <v>0.02089047457707414</v>
       </c>
       <c r="D101">
-        <v>-0.01612153775482264</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01011055831737175</v>
+      </c>
+      <c r="E101">
+        <v>0.01152272090794521</v>
+      </c>
+      <c r="F101">
+        <v>0.01155162163799237</v>
+      </c>
+      <c r="G101">
+        <v>0.1050869046947695</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.1072894292540431</v>
+        <v>0.1214913611661461</v>
       </c>
       <c r="C102">
-        <v>-0.07510318438750649</v>
+        <v>0.08846047771069084</v>
       </c>
       <c r="D102">
-        <v>-0.04822005343874174</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.0001096915399033149</v>
+      </c>
+      <c r="E102">
+        <v>-0.04350761770532646</v>
+      </c>
+      <c r="F102">
+        <v>0.01760679308724445</v>
+      </c>
+      <c r="G102">
+        <v>0.01635105397028807</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.1377053608058854</v>
+        <v>0.02033137812419414</v>
       </c>
       <c r="C104">
-        <v>0.6280387992785584</v>
+        <v>-0.02866883307970324</v>
       </c>
       <c r="D104">
-        <v>-0.7544343377743005</v>
+        <v>0.9861675279240121</v>
+      </c>
+      <c r="E104">
+        <v>-0.08574316517873874</v>
+      </c>
+      <c r="F104">
+        <v>0.02202570372469039</v>
+      </c>
+      <c r="G104">
+        <v>-0.03785795301121789</v>
       </c>
     </row>
   </sheetData>
